--- a/ThaumAge/Assets/Data/Excel/excel_research_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_research_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="93">
   <si>
     <t>id</t>
   </si>
@@ -22,6 +22,15 @@
     <t>type_research</t>
   </si>
   <si>
+    <t>icon_key</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>unlock_pre_research</t>
+  </si>
+  <si>
     <t>need_unlock</t>
   </si>
   <si>
@@ -52,6 +61,15 @@
     <t>类型 1镶嵌（元素）2镶嵌（生成）3镶嵌（射程）4镶嵌（范围）5镶嵌（威力）6镶嵌（消耗）</t>
   </si>
   <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>花费事件</t>
+  </si>
+  <si>
+    <t>解锁前置研究</t>
+  </si>
+  <si>
     <t>是否需要解锁 0不需要 1需要</t>
   </si>
   <si>
@@ -67,6 +85,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>icon_item_scroll_2</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:1</t>
   </si>
   <si>
@@ -112,6 +133,9 @@
     <t>Earth</t>
   </si>
   <si>
+    <t>icon_item_scroll_1</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:6</t>
   </si>
   <si>
@@ -137,6 +161,9 @@
   </si>
   <si>
     <t>Falling</t>
+  </si>
+  <si>
+    <t>icon_item_scroll_4</t>
   </si>
   <si>
     <t>100001:3&amp;100004:9</t>
@@ -1236,23 +1263,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="57.25" customWidth="1"/>
-    <col min="3" max="3" width="27.75" customWidth="1"/>
-    <col min="4" max="4" width="63.75" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="42.875" customWidth="1"/>
+    <col min="3" max="5" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="27.75" customWidth="1"/>
+    <col min="7" max="7" width="63.75" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="10" max="10" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1274,925 +1302,1261 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1000001</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1000002</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>1000003</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>1000004</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="G7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>1000005</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>2000001</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
       <c r="G9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>2000002</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>2000003</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
-        <v>40</v>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>3000001</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12">
+        <v>60</v>
+      </c>
+      <c r="F12">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
       <c r="G12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>3000002</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
       </c>
       <c r="E13">
+        <v>3000001</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>2</v>
       </c>
-      <c r="G13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>3000003</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>60</v>
       </c>
       <c r="E14">
+        <v>3000002</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14">
         <v>3</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>3</v>
       </c>
-      <c r="G14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="J14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>3000004</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
       </c>
       <c r="E15">
+        <v>3000003</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15">
         <v>4</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>4</v>
       </c>
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="J15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>3000005</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
       </c>
       <c r="E16">
+        <v>3000004</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>5</v>
       </c>
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>3000006</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>60</v>
       </c>
       <c r="E17">
+        <v>3000005</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17">
         <v>6</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>6</v>
       </c>
-      <c r="G17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>3000007</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
       </c>
       <c r="E18">
+        <v>3000006</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18">
         <v>7</v>
       </c>
-      <c r="F18">
+      <c r="I18">
         <v>7</v>
       </c>
-      <c r="G18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="J18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>3000008</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>49</v>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19">
+        <v>60</v>
       </c>
       <c r="E19">
+        <v>3000007</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19">
         <v>8</v>
       </c>
-      <c r="F19">
+      <c r="I19">
         <v>8</v>
       </c>
-      <c r="G19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="J19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>3000009</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>60</v>
       </c>
       <c r="E20">
+        <v>3000008</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20">
         <v>9</v>
       </c>
-      <c r="F20">
+      <c r="I20">
         <v>9</v>
       </c>
-      <c r="G20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>3000010</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21">
+        <v>60</v>
+      </c>
+      <c r="E21">
+        <v>3000009</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21" t="s">
         <v>51</v>
       </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="1:7">
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:10">
       <c r="A22">
         <v>4000001</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22">
+        <v>60</v>
+      </c>
+      <c r="F22">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
       <c r="G22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="1:7">
+        <v>61</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:10">
       <c r="A23">
         <v>4000002</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>54</v>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23">
+        <v>60</v>
       </c>
       <c r="E23">
+        <v>4000001</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23">
         <v>2</v>
       </c>
-      <c r="F23">
+      <c r="I23">
         <v>2</v>
       </c>
-      <c r="G23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="1:7">
+      <c r="J23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:10">
       <c r="A24">
         <v>4000003</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>55</v>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24">
+        <v>60</v>
       </c>
       <c r="E24">
+        <v>4000002</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24">
         <v>3</v>
       </c>
-      <c r="F24">
+      <c r="I24">
         <v>3</v>
       </c>
-      <c r="G24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="1:7">
+      <c r="J24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:10">
       <c r="A25">
         <v>4000004</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25">
+        <v>60</v>
       </c>
       <c r="E25">
+        <v>4000003</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25">
         <v>4</v>
       </c>
-      <c r="F25">
+      <c r="I25">
         <v>4</v>
       </c>
-      <c r="G25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="1:7">
+      <c r="J25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="1:10">
       <c r="A26">
         <v>4000005</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>57</v>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>60</v>
       </c>
       <c r="E26">
+        <v>4000004</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26">
         <v>5</v>
       </c>
-      <c r="F26">
+      <c r="I26">
         <v>5</v>
       </c>
-      <c r="G26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:7">
+      <c r="J26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:10">
       <c r="A27">
         <v>4000006</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27">
+        <v>60</v>
       </c>
       <c r="E27">
+        <v>4000005</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27">
         <v>6</v>
       </c>
-      <c r="F27">
+      <c r="I27">
         <v>6</v>
       </c>
-      <c r="G27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1" spans="1:7">
+      <c r="J27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="1:10">
       <c r="A28">
         <v>4000007</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>59</v>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28">
+        <v>60</v>
       </c>
       <c r="E28">
+        <v>4000006</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28">
         <v>7</v>
       </c>
-      <c r="F28">
+      <c r="I28">
         <v>7</v>
       </c>
-      <c r="G28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1" spans="1:7">
+      <c r="J28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="1:10">
       <c r="A29">
         <v>4000008</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29">
         <v>60</v>
       </c>
       <c r="E29">
+        <v>4000007</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29">
         <v>8</v>
       </c>
-      <c r="F29">
+      <c r="I29">
         <v>8</v>
       </c>
-      <c r="G29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1" spans="1:7">
+      <c r="J29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" spans="1:10">
       <c r="A30">
         <v>4000009</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>61</v>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30">
+        <v>60</v>
       </c>
       <c r="E30">
+        <v>4000008</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30">
         <v>9</v>
       </c>
-      <c r="F30">
+      <c r="I30">
         <v>9</v>
       </c>
-      <c r="G30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1" spans="1:7">
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" spans="1:10">
       <c r="A31">
         <v>4000010</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31">
+        <v>60</v>
+      </c>
+      <c r="E31">
+        <v>4000009</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31" t="s">
         <v>62</v>
       </c>
-      <c r="E31">
-        <v>10</v>
-      </c>
-      <c r="F31">
-        <v>10</v>
-      </c>
-      <c r="G31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1" spans="1:7">
+    </row>
+    <row r="32" ht="15" customHeight="1" spans="1:10">
       <c r="A32">
         <v>5000001</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32">
+        <v>60</v>
+      </c>
+      <c r="F32">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
-      </c>
       <c r="G32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>72</v>
+      </c>
+      <c r="H32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>5000002</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" t="s">
-        <v>67</v>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33">
+        <v>60</v>
+      </c>
+      <c r="E33">
+        <v>5000001</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>75</v>
+      </c>
+      <c r="H33" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>5000003</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" t="s">
-        <v>69</v>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34">
+        <v>60</v>
+      </c>
+      <c r="E34">
+        <v>5000002</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>77</v>
+      </c>
+      <c r="H34" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" t="s">
+        <v>78</v>
+      </c>
+      <c r="J34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>5000004</v>
       </c>
       <c r="B35">
         <v>5</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" t="s">
-        <v>71</v>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35">
+        <v>60</v>
+      </c>
+      <c r="E35">
+        <v>5000003</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>79</v>
+      </c>
+      <c r="H35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>5000005</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" t="s">
-        <v>73</v>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36">
+        <v>60</v>
+      </c>
+      <c r="E36">
+        <v>5000004</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>81</v>
+      </c>
+      <c r="H36" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" t="s">
+        <v>82</v>
+      </c>
+      <c r="J36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>5000006</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37">
+        <v>60</v>
+      </c>
+      <c r="E37">
+        <v>5000005</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" t="s">
+        <v>84</v>
+      </c>
+      <c r="J37" t="s">
         <v>74</v>
       </c>
-      <c r="E37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" t="s">
-        <v>75</v>
-      </c>
-      <c r="G37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>5000007</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" t="s">
-        <v>77</v>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38">
+        <v>60</v>
+      </c>
+      <c r="E38">
+        <v>5000006</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>85</v>
+      </c>
+      <c r="H38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" t="s">
+        <v>86</v>
+      </c>
+      <c r="J38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>5000008</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" t="s">
-        <v>79</v>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39">
+        <v>60</v>
+      </c>
+      <c r="E39">
+        <v>5000007</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>87</v>
+      </c>
+      <c r="H39" t="s">
+        <v>88</v>
+      </c>
+      <c r="I39" t="s">
+        <v>88</v>
+      </c>
+      <c r="J39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>5000009</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" t="s">
-        <v>81</v>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40">
+        <v>60</v>
+      </c>
+      <c r="E40">
+        <v>5000008</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>89</v>
+      </c>
+      <c r="H40" t="s">
+        <v>90</v>
+      </c>
+      <c r="I40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>5000010</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" t="s">
-        <v>83</v>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41">
+        <v>60</v>
+      </c>
+      <c r="E41">
+        <v>5000009</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>65</v>
+        <v>91</v>
+      </c>
+      <c r="H41" t="s">
+        <v>92</v>
+      </c>
+      <c r="I41" t="s">
+        <v>92</v>
+      </c>
+      <c r="J41" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="65" ht="12" customHeight="1"/>
@@ -2205,7 +2569,7 @@
     <row r="72" ht="12" customHeight="1"/>
     <row r="73" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:G88">
+  <sortState ref="A4:J88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ThaumAge/Assets/Data/Excel/excel_research_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_research_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="11145"/>
+    <workbookView windowWidth="28530" windowHeight="11145"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="179">
   <si>
     <t>id</t>
   </si>
@@ -22,6 +22,9 @@
     <t>type_research</t>
   </si>
   <si>
+    <t>type_details</t>
+  </si>
+  <si>
     <t>icon_key</t>
   </si>
   <si>
@@ -34,15 +37,27 @@
     <t>need_unlock</t>
   </si>
   <si>
+    <t>unlock_materials</t>
+  </si>
+  <si>
     <t>materials</t>
   </si>
   <si>
+    <t>data_research</t>
+  </si>
+  <si>
     <t>name_cn</t>
   </si>
   <si>
     <t>name_en</t>
   </si>
   <si>
+    <t>content_cn</t>
+  </si>
+  <si>
+    <t>content_en</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
@@ -58,13 +73,16 @@
     <t>序号</t>
   </si>
   <si>
-    <t>类型 1镶嵌（元素）2镶嵌（生成）3镶嵌（射程）4镶嵌（范围）5镶嵌（威力）6镶嵌（消耗）</t>
+    <t>类型 1.法术核心镶嵌</t>
+  </si>
+  <si>
+    <t>具体类型</t>
   </si>
   <si>
     <t>图标</t>
   </si>
   <si>
-    <t>花费事件</t>
+    <t>花费时间</t>
   </si>
   <si>
     <t>解锁前置研究</t>
@@ -73,15 +91,27 @@
     <t>是否需要解锁 0不需要 1需要</t>
   </si>
   <si>
+    <t>解锁资源（&amp;分隔不同材料） （:分隔道具数量） （|分隔可替换的材料）</t>
+  </si>
+  <si>
     <t>资源（&amp;分隔不同材料） （:分隔道具数量） （|分隔可替换的材料）</t>
   </si>
   <si>
+    <t>研究数据</t>
+  </si>
+  <si>
     <t>名字中文</t>
   </si>
   <si>
     <t>名字英文</t>
   </si>
   <si>
+    <t>内容描述中文</t>
+  </si>
+  <si>
+    <t>内容描述英文</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -97,6 +127,12 @@
     <t>Metal</t>
   </si>
   <si>
+    <t>核心元素: 金</t>
+  </si>
+  <si>
+    <t>Magic Core Element: Metal</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:2</t>
   </si>
   <si>
@@ -106,6 +142,12 @@
     <t>Wood</t>
   </si>
   <si>
+    <t>核心元素: 木</t>
+  </si>
+  <si>
+    <t>Magic Core Element: Wood</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:3</t>
   </si>
   <si>
@@ -115,6 +157,12 @@
     <t>Water</t>
   </si>
   <si>
+    <t>核心元素: 水</t>
+  </si>
+  <si>
+    <t>Magic Core Element: Water</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:4</t>
   </si>
   <si>
@@ -124,6 +172,12 @@
     <t>Fire</t>
   </si>
   <si>
+    <t>核心元素: 火</t>
+  </si>
+  <si>
+    <t>Magic Core Element: Fire</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:5</t>
   </si>
   <si>
@@ -133,6 +187,12 @@
     <t>Earth</t>
   </si>
   <si>
+    <t>核心元素: 土</t>
+  </si>
+  <si>
+    <t>Magic Core Element: Earth</t>
+  </si>
+  <si>
     <t>icon_item_scroll_1</t>
   </si>
   <si>
@@ -145,6 +205,12 @@
     <t>Launch</t>
   </si>
   <si>
+    <t>魔法生成: 发射</t>
+  </si>
+  <si>
+    <t>Create: Launch</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:7</t>
   </si>
   <si>
@@ -154,6 +220,12 @@
     <t>Jet</t>
   </si>
   <si>
+    <t>魔法生成: 喷射</t>
+  </si>
+  <si>
+    <t>Create: Jet</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:8</t>
   </si>
   <si>
@@ -163,81 +235,213 @@
     <t>Falling</t>
   </si>
   <si>
+    <t>魔法生成: 坠落</t>
+  </si>
+  <si>
+    <t>Create: Falling</t>
+  </si>
+  <si>
     <t>icon_item_scroll_4</t>
   </si>
   <si>
     <t>100001:3&amp;100004:9</t>
   </si>
   <si>
+    <t>射程: 1</t>
+  </si>
+  <si>
+    <t>Range: 1</t>
+  </si>
+  <si>
     <t>射程</t>
   </si>
   <si>
     <t>100001:3&amp;100004:10</t>
   </si>
   <si>
+    <t>射程: 2</t>
+  </si>
+  <si>
+    <t>Range: 2</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:11</t>
   </si>
   <si>
+    <t>射程: 3</t>
+  </si>
+  <si>
+    <t>Range: 3</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:12</t>
   </si>
   <si>
+    <t>射程: 4</t>
+  </si>
+  <si>
+    <t>Range: 4</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:13</t>
   </si>
   <si>
+    <t>射程: 5</t>
+  </si>
+  <si>
+    <t>Range: 5</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:14</t>
   </si>
   <si>
+    <t>射程: 6</t>
+  </si>
+  <si>
+    <t>Range: 6</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:15</t>
   </si>
   <si>
+    <t>射程: 7</t>
+  </si>
+  <si>
+    <t>Range: 7</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:16</t>
   </si>
   <si>
+    <t>射程: 8</t>
+  </si>
+  <si>
+    <t>Range: 8</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:17</t>
   </si>
   <si>
+    <t>射程: 9</t>
+  </si>
+  <si>
+    <t>Range: 9</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:18</t>
   </si>
   <si>
+    <t>射程: 10</t>
+  </si>
+  <si>
+    <t>Range: 10</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:19</t>
   </si>
   <si>
+    <t>范围: 1</t>
+  </si>
+  <si>
+    <t>Scope: 1</t>
+  </si>
+  <si>
     <t>范围</t>
   </si>
   <si>
     <t>100001:3&amp;100004:20</t>
   </si>
   <si>
+    <t>范围: 2</t>
+  </si>
+  <si>
+    <t>Scope: 2</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:21</t>
   </si>
   <si>
+    <t>范围: 3</t>
+  </si>
+  <si>
+    <t>Scope: 3</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:22</t>
   </si>
   <si>
+    <t>范围: 4</t>
+  </si>
+  <si>
+    <t>Scope: 4</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:23</t>
   </si>
   <si>
+    <t>范围: 5</t>
+  </si>
+  <si>
+    <t>Scope: 5</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:24</t>
   </si>
   <si>
+    <t>范围: 6</t>
+  </si>
+  <si>
+    <t>Scope: 6</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:25</t>
   </si>
   <si>
+    <t>范围: 7</t>
+  </si>
+  <si>
+    <t>Scope: 7</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:26</t>
   </si>
   <si>
+    <t>范围: 8</t>
+  </si>
+  <si>
+    <t>Scope: 8</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:27</t>
   </si>
   <si>
+    <t>范围: 9</t>
+  </si>
+  <si>
+    <t>Scope: 9</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:28</t>
   </si>
   <si>
+    <t>范围: 10</t>
+  </si>
+  <si>
+    <t>Scope: 10</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:29</t>
   </si>
   <si>
     <t>Lv.1</t>
   </si>
   <si>
+    <t>威力: Lv.1</t>
+  </si>
+  <si>
+    <t>Power: Lv.1</t>
+  </si>
+  <si>
     <t>威力</t>
   </si>
   <si>
@@ -247,52 +451,106 @@
     <t>Lv.2</t>
   </si>
   <si>
+    <t>威力: Lv.2</t>
+  </si>
+  <si>
+    <t>Power: Lv.2</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:31</t>
   </si>
   <si>
     <t>Lv.3</t>
   </si>
   <si>
+    <t>威力: Lv.3</t>
+  </si>
+  <si>
+    <t>Power: Lv.3</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:32</t>
   </si>
   <si>
     <t>Lv.4</t>
   </si>
   <si>
+    <t>威力: Lv.4</t>
+  </si>
+  <si>
+    <t>Power: Lv.4</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:33</t>
   </si>
   <si>
     <t>Lv.5</t>
   </si>
   <si>
+    <t>威力: Lv.5</t>
+  </si>
+  <si>
+    <t>Power: Lv.5</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:34</t>
   </si>
   <si>
     <t>Lv.6</t>
   </si>
   <si>
+    <t>威力: Lv.6</t>
+  </si>
+  <si>
+    <t>Power: Lv.6</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:35</t>
   </si>
   <si>
     <t>Lv.7</t>
   </si>
   <si>
+    <t>威力: Lv.7</t>
+  </si>
+  <si>
+    <t>Power: Lv.7</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:36</t>
   </si>
   <si>
     <t>Lv.8</t>
   </si>
   <si>
+    <t>威力: Lv.8</t>
+  </si>
+  <si>
+    <t>Power: Lv.8</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:37</t>
   </si>
   <si>
     <t>Lv.9</t>
   </si>
   <si>
+    <t>威力: Lv.9</t>
+  </si>
+  <si>
+    <t>Power: Lv.9</t>
+  </si>
+  <si>
     <t>100001:3&amp;100004:38</t>
   </si>
   <si>
     <t>Lv.10</t>
+  </si>
+  <si>
+    <t>威力: Lv.10</t>
+  </si>
+  <si>
+    <t>Power: Lv.10</t>
   </si>
 </sst>
 </file>
@@ -1263,24 +1521,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="57.25" customWidth="1"/>
-    <col min="3" max="5" width="23.625" customWidth="1"/>
-    <col min="6" max="6" width="27.75" customWidth="1"/>
-    <col min="7" max="7" width="63.75" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="9.75" customWidth="1"/>
-    <col min="10" max="10" width="42.875" customWidth="1"/>
+    <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="3" max="6" width="23.625" customWidth="1"/>
+    <col min="7" max="8" width="27.75" customWidth="1"/>
+    <col min="9" max="10" width="63.75" customWidth="1"/>
+    <col min="11" max="11" width="12.25" customWidth="1"/>
+    <col min="12" max="12" width="9.75" customWidth="1"/>
+    <col min="13" max="13" width="33.25" customWidth="1"/>
+    <col min="14" max="14" width="35.875" customWidth="1"/>
+    <col min="15" max="15" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1311,1252 +1571,1858 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:15">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
-        <v>1000001</v>
+        <v>1100001</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>1100002</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>1100003</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>1100004</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>1100005</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>1200001</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>60</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>1000002</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
+      <c r="I9" t="s">
         <v>60</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>1000003</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>60</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>1000004</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>60</v>
-      </c>
-      <c r="F7">
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>1200002</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>1200003</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>1300001</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="G12">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>1000005</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>60</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>2000001</v>
-      </c>
-      <c r="B9">
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>1300002</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9">
-        <v>60</v>
-      </c>
-      <c r="F9">
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>1300003</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>1300002</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>1300004</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>1300003</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>1300005</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>1300004</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16" t="s">
+        <v>91</v>
+      </c>
+      <c r="O16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>1300006</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>1300005</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17" t="s">
+        <v>93</v>
+      </c>
+      <c r="N17" t="s">
+        <v>94</v>
+      </c>
+      <c r="O17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>1300007</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>1300006</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18" t="s">
+        <v>96</v>
+      </c>
+      <c r="N18" t="s">
+        <v>97</v>
+      </c>
+      <c r="O18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
+        <v>1300008</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>1300007</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>99</v>
+      </c>
+      <c r="N19" t="s">
+        <v>100</v>
+      </c>
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
+        <v>1300009</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>1300008</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20">
+        <v>9</v>
+      </c>
+      <c r="K20">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <v>9</v>
+      </c>
+      <c r="M20" t="s">
+        <v>102</v>
+      </c>
+      <c r="N20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21">
+        <v>1300010</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>1300009</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21" t="s">
+        <v>105</v>
+      </c>
+      <c r="N21" t="s">
+        <v>106</v>
+      </c>
+      <c r="O21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:15">
+      <c r="A22">
+        <v>1400001</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="G22">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>2000002</v>
-      </c>
-      <c r="B10">
+      <c r="H22" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>108</v>
+      </c>
+      <c r="N22" t="s">
+        <v>109</v>
+      </c>
+      <c r="O22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:15">
+      <c r="A23">
+        <v>1400002</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10">
-        <v>60</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>2000003</v>
-      </c>
-      <c r="B11">
+      <c r="K23">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11">
-        <v>60</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>3000001</v>
-      </c>
-      <c r="B12">
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>112</v>
+      </c>
+      <c r="N23" t="s">
+        <v>113</v>
+      </c>
+      <c r="O23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:15">
+      <c r="A24">
+        <v>1400003</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>1400002</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12">
-        <v>60</v>
-      </c>
-      <c r="F12">
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24" t="s">
+        <v>115</v>
+      </c>
+      <c r="N24" t="s">
+        <v>116</v>
+      </c>
+      <c r="O24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:15">
+      <c r="A25">
+        <v>1400004</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>1400003</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" t="s">
+        <v>117</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25" t="s">
+        <v>118</v>
+      </c>
+      <c r="N25" t="s">
+        <v>119</v>
+      </c>
+      <c r="O25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="1:15">
+      <c r="A26">
+        <v>1400005</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>1400004</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26" t="s">
+        <v>121</v>
+      </c>
+      <c r="N26" t="s">
+        <v>122</v>
+      </c>
+      <c r="O26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:15">
+      <c r="A27">
+        <v>1400006</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>1400005</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+      <c r="M27" t="s">
+        <v>124</v>
+      </c>
+      <c r="N27" t="s">
+        <v>125</v>
+      </c>
+      <c r="O27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="1:15">
+      <c r="A28">
+        <v>1400007</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>1400006</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" t="s">
+        <v>126</v>
+      </c>
+      <c r="J28">
+        <v>7</v>
+      </c>
+      <c r="K28">
+        <v>7</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28" t="s">
+        <v>127</v>
+      </c>
+      <c r="N28" t="s">
+        <v>128</v>
+      </c>
+      <c r="O28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="1:15">
+      <c r="A29">
+        <v>1400008</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>1400007</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>8</v>
+      </c>
+      <c r="L29">
+        <v>8</v>
+      </c>
+      <c r="M29" t="s">
+        <v>130</v>
+      </c>
+      <c r="N29" t="s">
+        <v>131</v>
+      </c>
+      <c r="O29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" spans="1:15">
+      <c r="A30">
+        <v>1400009</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>1400008</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>132</v>
+      </c>
+      <c r="I30" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30">
+        <v>9</v>
+      </c>
+      <c r="K30">
+        <v>9</v>
+      </c>
+      <c r="L30">
+        <v>9</v>
+      </c>
+      <c r="M30" t="s">
+        <v>133</v>
+      </c>
+      <c r="N30" t="s">
+        <v>134</v>
+      </c>
+      <c r="O30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" spans="1:15">
+      <c r="A31">
+        <v>1400010</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>1400009</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" t="s">
+        <v>135</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="M31" t="s">
+        <v>136</v>
+      </c>
+      <c r="N31" t="s">
+        <v>137</v>
+      </c>
+      <c r="O31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1" spans="1:15">
+      <c r="A32">
+        <v>1500001</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="G32">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>3000002</v>
-      </c>
-      <c r="B13">
+      <c r="H32" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" t="s">
+        <v>138</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>139</v>
+      </c>
+      <c r="L32" t="s">
+        <v>139</v>
+      </c>
+      <c r="M32" t="s">
+        <v>140</v>
+      </c>
+      <c r="N32" t="s">
+        <v>141</v>
+      </c>
+      <c r="O32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33">
+        <v>1500002</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>143</v>
+      </c>
+      <c r="I33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33" t="s">
+        <v>144</v>
+      </c>
+      <c r="L33" t="s">
+        <v>144</v>
+      </c>
+      <c r="M33" t="s">
+        <v>145</v>
+      </c>
+      <c r="N33" t="s">
+        <v>146</v>
+      </c>
+      <c r="O33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34">
+        <v>1500003</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>1500002</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I34" t="s">
+        <v>147</v>
+      </c>
+      <c r="J34">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13">
-        <v>60</v>
-      </c>
-      <c r="E13">
-        <v>3000001</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>3000003</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14">
-        <v>60</v>
-      </c>
-      <c r="E14">
-        <v>3000002</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="J14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>3000004</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15">
-        <v>60</v>
-      </c>
-      <c r="E15">
-        <v>3000003</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15">
+      <c r="K34" t="s">
+        <v>148</v>
+      </c>
+      <c r="L34" t="s">
+        <v>148</v>
+      </c>
+      <c r="M34" t="s">
+        <v>149</v>
+      </c>
+      <c r="N34" t="s">
+        <v>150</v>
+      </c>
+      <c r="O34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35">
+        <v>1500004</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>1500003</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>151</v>
+      </c>
+      <c r="I35" t="s">
+        <v>151</v>
+      </c>
+      <c r="J35">
         <v>4</v>
       </c>
-      <c r="I15">
-        <v>4</v>
-      </c>
-      <c r="J15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>3000005</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16">
-        <v>60</v>
-      </c>
-      <c r="E16">
-        <v>3000004</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16">
+      <c r="K35" t="s">
+        <v>152</v>
+      </c>
+      <c r="L35" t="s">
+        <v>152</v>
+      </c>
+      <c r="M35" t="s">
+        <v>153</v>
+      </c>
+      <c r="N35" t="s">
+        <v>154</v>
+      </c>
+      <c r="O35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36">
+        <v>1500005</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
         <v>5</v>
       </c>
-      <c r="I16">
+      <c r="D36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>1500004</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" t="s">
+        <v>155</v>
+      </c>
+      <c r="J36">
         <v>5</v>
       </c>
-      <c r="J16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
-        <v>3000006</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17">
-        <v>60</v>
-      </c>
-      <c r="E17">
-        <v>3000005</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17">
+      <c r="K36" t="s">
+        <v>156</v>
+      </c>
+      <c r="L36" t="s">
+        <v>156</v>
+      </c>
+      <c r="M36" t="s">
+        <v>157</v>
+      </c>
+      <c r="N36" t="s">
+        <v>158</v>
+      </c>
+      <c r="O36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37">
+        <v>1500006</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>1500005</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>159</v>
+      </c>
+      <c r="I37" t="s">
+        <v>159</v>
+      </c>
+      <c r="J37">
         <v>6</v>
       </c>
-      <c r="I17">
-        <v>6</v>
-      </c>
-      <c r="J17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
-        <v>3000007</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18">
-        <v>60</v>
-      </c>
-      <c r="E18">
-        <v>3000006</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18">
+      <c r="K37" t="s">
+        <v>160</v>
+      </c>
+      <c r="L37" t="s">
+        <v>160</v>
+      </c>
+      <c r="M37" t="s">
+        <v>161</v>
+      </c>
+      <c r="N37" t="s">
+        <v>162</v>
+      </c>
+      <c r="O37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38">
+        <v>1500007</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>1500006</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>163</v>
+      </c>
+      <c r="I38" t="s">
+        <v>163</v>
+      </c>
+      <c r="J38">
         <v>7</v>
       </c>
-      <c r="I18">
-        <v>7</v>
-      </c>
-      <c r="J18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
-        <v>3000008</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19">
-        <v>60</v>
-      </c>
-      <c r="E19">
-        <v>3000007</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19">
+      <c r="K38" t="s">
+        <v>164</v>
+      </c>
+      <c r="L38" t="s">
+        <v>164</v>
+      </c>
+      <c r="M38" t="s">
+        <v>165</v>
+      </c>
+      <c r="N38" t="s">
+        <v>166</v>
+      </c>
+      <c r="O38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39">
+        <v>1500008</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>1500007</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>167</v>
+      </c>
+      <c r="I39" t="s">
+        <v>167</v>
+      </c>
+      <c r="J39">
         <v>8</v>
       </c>
-      <c r="I19">
-        <v>8</v>
-      </c>
-      <c r="J19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
-        <v>3000009</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20">
-        <v>60</v>
-      </c>
-      <c r="E20">
-        <v>3000008</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20">
+      <c r="K39" t="s">
+        <v>168</v>
+      </c>
+      <c r="L39" t="s">
+        <v>168</v>
+      </c>
+      <c r="M39" t="s">
+        <v>169</v>
+      </c>
+      <c r="N39" t="s">
+        <v>170</v>
+      </c>
+      <c r="O39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40">
+        <v>1500009</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>1500008</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>171</v>
+      </c>
+      <c r="I40" t="s">
+        <v>171</v>
+      </c>
+      <c r="J40">
         <v>9</v>
       </c>
-      <c r="I20">
-        <v>9</v>
-      </c>
-      <c r="J20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
-        <v>3000010</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21">
-        <v>60</v>
-      </c>
-      <c r="E21">
-        <v>3000009</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
-      <c r="I21">
-        <v>10</v>
-      </c>
-      <c r="J21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="1:10">
-      <c r="A22">
-        <v>4000001</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22">
-        <v>60</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="1:10">
-      <c r="A23">
-        <v>4000002</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23">
-        <v>60</v>
-      </c>
-      <c r="E23">
-        <v>4000001</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="1:10">
-      <c r="A24">
-        <v>4000003</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24">
-        <v>60</v>
-      </c>
-      <c r="E24">
-        <v>4000002</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-      <c r="J24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="1:10">
-      <c r="A25">
-        <v>4000004</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25">
-        <v>60</v>
-      </c>
-      <c r="E25">
-        <v>4000003</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25">
-        <v>4</v>
-      </c>
-      <c r="I25">
-        <v>4</v>
-      </c>
-      <c r="J25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="1:10">
-      <c r="A26">
-        <v>4000005</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26">
-        <v>60</v>
-      </c>
-      <c r="E26">
-        <v>4000004</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26">
+      <c r="K40" t="s">
+        <v>172</v>
+      </c>
+      <c r="L40" t="s">
+        <v>172</v>
+      </c>
+      <c r="M40" t="s">
+        <v>173</v>
+      </c>
+      <c r="N40" t="s">
+        <v>174</v>
+      </c>
+      <c r="O40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41">
+        <v>1500010</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
         <v>5</v>
       </c>
-      <c r="I26">
-        <v>5</v>
-      </c>
-      <c r="J26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:10">
-      <c r="A27">
-        <v>4000006</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27">
-        <v>60</v>
-      </c>
-      <c r="E27">
-        <v>4000005</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27">
-        <v>6</v>
-      </c>
-      <c r="I27">
-        <v>6</v>
-      </c>
-      <c r="J27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1" spans="1:10">
-      <c r="A28">
-        <v>4000007</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28">
-        <v>60</v>
-      </c>
-      <c r="E28">
-        <v>4000006</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28">
-        <v>7</v>
-      </c>
-      <c r="I28">
-        <v>7</v>
-      </c>
-      <c r="J28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1" spans="1:10">
-      <c r="A29">
-        <v>4000008</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29">
-        <v>60</v>
-      </c>
-      <c r="E29">
-        <v>4000007</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29">
-        <v>8</v>
-      </c>
-      <c r="I29">
-        <v>8</v>
-      </c>
-      <c r="J29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1" spans="1:10">
-      <c r="A30">
-        <v>4000009</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30">
-        <v>60</v>
-      </c>
-      <c r="E30">
-        <v>4000008</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30">
-        <v>9</v>
-      </c>
-      <c r="I30">
-        <v>9</v>
-      </c>
-      <c r="J30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1" spans="1:10">
-      <c r="A31">
-        <v>4000010</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31">
-        <v>60</v>
-      </c>
-      <c r="E31">
-        <v>4000009</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31">
-        <v>10</v>
-      </c>
-      <c r="I31">
-        <v>10</v>
-      </c>
-      <c r="J31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1" spans="1:10">
-      <c r="A32">
-        <v>5000001</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32">
-        <v>60</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" t="s">
-        <v>73</v>
-      </c>
-      <c r="I32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33">
-        <v>5000002</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33">
-        <v>60</v>
-      </c>
-      <c r="E33">
-        <v>5000001</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="D41" t="s">
         <v>75</v>
       </c>
-      <c r="H33" t="s">
-        <v>76</v>
-      </c>
-      <c r="I33" t="s">
-        <v>76</v>
-      </c>
-      <c r="J33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34">
-        <v>5000003</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34">
-        <v>60</v>
-      </c>
-      <c r="E34">
-        <v>5000002</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" t="s">
-        <v>78</v>
-      </c>
-      <c r="I34" t="s">
-        <v>78</v>
-      </c>
-      <c r="J34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35">
-        <v>5000004</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35">
-        <v>60</v>
-      </c>
-      <c r="E35">
-        <v>5000003</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>79</v>
-      </c>
-      <c r="H35" t="s">
-        <v>80</v>
-      </c>
-      <c r="I35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36">
-        <v>5000005</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36">
-        <v>60</v>
-      </c>
-      <c r="E36">
-        <v>5000004</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>81</v>
-      </c>
-      <c r="H36" t="s">
-        <v>82</v>
-      </c>
-      <c r="I36" t="s">
-        <v>82</v>
-      </c>
-      <c r="J36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37">
-        <v>5000006</v>
-      </c>
-      <c r="B37">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37">
-        <v>60</v>
-      </c>
-      <c r="E37">
-        <v>5000005</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
-        <v>83</v>
-      </c>
-      <c r="H37" t="s">
-        <v>84</v>
-      </c>
-      <c r="I37" t="s">
-        <v>84</v>
-      </c>
-      <c r="J37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38">
-        <v>5000007</v>
-      </c>
-      <c r="B38">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38">
-        <v>60</v>
-      </c>
-      <c r="E38">
-        <v>5000006</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I38" t="s">
-        <v>86</v>
-      </c>
-      <c r="J38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39">
-        <v>5000008</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39">
-        <v>60</v>
-      </c>
-      <c r="E39">
-        <v>5000007</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>87</v>
-      </c>
-      <c r="H39" t="s">
-        <v>88</v>
-      </c>
-      <c r="I39" t="s">
-        <v>88</v>
-      </c>
-      <c r="J39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40">
-        <v>5000009</v>
-      </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40">
-        <v>60</v>
-      </c>
-      <c r="E40">
-        <v>5000008</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="s">
-        <v>89</v>
-      </c>
-      <c r="H40" t="s">
-        <v>90</v>
-      </c>
-      <c r="I40" t="s">
-        <v>90</v>
-      </c>
-      <c r="J40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41">
-        <v>5000010</v>
-      </c>
-      <c r="B41">
-        <v>5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41">
-        <v>60</v>
-      </c>
       <c r="E41">
-        <v>5000009</v>
+        <v>10</v>
       </c>
       <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="s">
-        <v>91</v>
+        <v>1500009</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="I41" t="s">
-        <v>92</v>
-      </c>
-      <c r="J41" t="s">
-        <v>74</v>
+        <v>175</v>
+      </c>
+      <c r="J41">
+        <v>10</v>
+      </c>
+      <c r="K41" t="s">
+        <v>176</v>
+      </c>
+      <c r="L41" t="s">
+        <v>176</v>
+      </c>
+      <c r="M41" t="s">
+        <v>177</v>
+      </c>
+      <c r="N41" t="s">
+        <v>178</v>
+      </c>
+      <c r="O41" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="65" ht="12" customHeight="1"/>
@@ -2569,7 +3435,7 @@
     <row r="72" ht="12" customHeight="1"/>
     <row r="73" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:J88">
+  <sortState ref="A4:O88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ThaumAge/Assets/Data/Excel/excel_research_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_research_info.xlsx
@@ -232,7 +232,7 @@
     <t>坠落</t>
   </si>
   <si>
-    <t>Falling</t>
+    <t>Fall</t>
   </si>
   <si>
     <t>魔法生成: 坠落</t>
@@ -1524,7 +1524,7 @@
   <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
